--- a/Practicos/labfinal/medidas.xlsx
+++ b/Practicos/labfinal/medidas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://finguy-my.sharepoint.com/personal/federico_gil_fing_edu_uy/Documents/Escritorio/Facultad/Semestre 11/GPGPU/Practico 1/cositas/GPGPU/Practicos/labfinal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="8_{E4A5B43A-06FE-4F9F-B088-4855B00F055B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77BF1656-C46A-4324-8611-5FF9FFEE603D}"/>
+  <xr:revisionPtr revIDLastSave="176" documentId="8_{E4A5B43A-06FE-4F9F-B088-4855B00F055B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C686EDD-E68C-4B63-B22B-3802E17B99DD}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-5790" windowWidth="29040" windowHeight="15840" xr2:uid="{8BB1CD6E-8E1A-4958-B8CA-22BA6FE3242E}"/>
   </bookViews>
@@ -65,24 +65,32 @@
     <t>Radixsort</t>
   </si>
   <si>
-    <t>Coaleced</t>
-  </si>
-  <si>
     <t>Bancos</t>
   </si>
   <si>
-    <t>Texturas</t>
+    <t>Facultad_deIngenieria_UDELAR</t>
   </si>
   <si>
-    <t>Facultad_deIngenieria_UDELAR</t>
+    <t>Heapsort + Texturas</t>
+  </si>
+  <si>
+    <t>Network</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -235,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -246,15 +254,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -264,13 +263,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -288,6 +302,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -610,13 +628,14 @@
   <dimension ref="B1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="18" width="10.42578125" customWidth="1"/>
+    <col min="3" max="16" width="10.42578125" customWidth="1"/>
+    <col min="17" max="18" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -624,89 +643,89 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="10"/>
+      <c r="G2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="5" t="s">
+      <c r="H2" s="10"/>
+      <c r="I2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="5" t="s">
+      <c r="J2" s="10"/>
+      <c r="K2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="5" t="s">
+      <c r="L2" s="10"/>
+      <c r="M2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="10"/>
+      <c r="O2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="R2" s="6"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="11"/>
     </row>
     <row r="3" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="9" t="s">
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -714,275 +733,327 @@
       <c r="B4" s="3">
         <v>3</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="12">
         <v>141.84200000000001</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="12">
         <v>4.1886099999999997</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="7">
         <v>0.47404499999999999</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="12">
         <v>1.78156E-3</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="7">
         <v>5.6376299999999997E-2</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="12">
         <v>3.3707799999999999E-4</v>
       </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="11">
-        <v>13.4895</v>
-      </c>
-      <c r="L4" s="10">
-        <v>0.52729999999999999</v>
-      </c>
-      <c r="M4" s="11"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="12"/>
+      <c r="I4" s="7">
+        <v>0.71109999999999995</v>
+      </c>
+      <c r="J4" s="12">
+        <v>2.751E-3</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="7">
+        <v>0.51770000000000005</v>
+      </c>
+      <c r="N4" s="12">
+        <v>3.0360000000000002E-2</v>
+      </c>
+      <c r="O4" s="7">
+        <v>5.6640000000000003E-2</v>
+      </c>
+      <c r="P4" s="8">
+        <v>5.9389999999999996E-4</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>4.0627200000000002E-2</v>
+      </c>
+      <c r="R4" s="8">
+        <v>8.1400000000000005E-4</v>
+      </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>5</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="12">
         <v>258.00400000000002</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="12">
         <v>4.7387899999999998</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="7">
         <v>3.1827899999999998</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="12">
         <v>0.18701899999999999</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="7">
         <v>0.46752100000000002</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="12">
         <v>2.9901E-4</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="11">
-        <v>18.027000000000001</v>
-      </c>
-      <c r="L5" s="10">
-        <v>0.5716</v>
-      </c>
-      <c r="M5" s="11"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="12"/>
+      <c r="I5" s="7">
+        <v>3.8302399999999999</v>
+      </c>
+      <c r="J5" s="12">
+        <v>8.2199999999999999E-3</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="7">
+        <v>2.45783</v>
+      </c>
+      <c r="N5" s="12">
+        <v>0.11409999999999999</v>
+      </c>
+      <c r="O5" s="7">
+        <v>0.55159999999999998</v>
+      </c>
+      <c r="P5" s="8">
+        <v>1.196E-3</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>9.8549999999999999E-2</v>
+      </c>
+      <c r="R5" s="8">
+        <v>8.3900000000000001E-4</v>
+      </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>7</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="12">
         <v>454.86399999999998</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="12">
         <v>20.109500000000001</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="7">
         <v>10.702400000000001</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="12">
         <v>0.173927</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="7">
         <v>1.6941999999999999</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="12">
         <v>2.8887100000000001E-3</v>
       </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="11">
-        <v>13.128299999999999</v>
-      </c>
-      <c r="L6" s="10">
-        <v>0.43096400000000001</v>
-      </c>
-      <c r="M6" s="11"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="12"/>
+      <c r="I6" s="7">
+        <v>8.8889700000000005</v>
+      </c>
+      <c r="J6" s="12">
+        <v>0.580955</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="7">
+        <v>6.3801199999999998</v>
+      </c>
+      <c r="N6" s="12">
+        <v>2.1215999999999999E-2</v>
+      </c>
+      <c r="O6" s="7">
+        <v>2.0009999999999999</v>
+      </c>
+      <c r="P6" s="8">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>0.76276999999999995</v>
+      </c>
+      <c r="R6" s="8">
+        <v>7.1000000000000004E-3</v>
+      </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>9</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="12">
         <v>716.15200000000004</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="12">
         <v>5.6158200000000003</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="7">
         <v>28.9757</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="12">
         <v>0.23644899999999999</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="13">
         <v>4.8123800000000001</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="12">
         <v>0.120778</v>
       </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="11">
-        <v>18.102399999999999</v>
-      </c>
-      <c r="L7" s="10">
-        <v>0.45824799999999999</v>
-      </c>
-      <c r="M7" s="11"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="12"/>
+      <c r="I7" s="7">
+        <v>14.6142</v>
+      </c>
+      <c r="J7" s="12">
+        <v>7.9384399999999994E-2</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="7">
+        <v>15.148099999999999</v>
+      </c>
+      <c r="N7" s="12">
+        <v>6.3709000000000002E-2</v>
+      </c>
+      <c r="O7" s="7">
+        <v>5.6428099999999999</v>
+      </c>
+      <c r="P7" s="8">
+        <v>1.9530000000000001E-3</v>
+      </c>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="8"/>
     </row>
     <row r="8" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>11</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="4">
         <v>1052.07</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="4">
         <v>12.8649</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="5">
         <v>62.938400000000001</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="4">
         <v>0.25387599999999999</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="14">
         <v>10.783300000000001</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="4">
         <v>0.548234</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="8">
-        <v>25.194800000000001</v>
-      </c>
-      <c r="L8" s="7">
-        <v>0.43265999999999999</v>
-      </c>
-      <c r="M8" s="8"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="9"/>
+      <c r="I8" s="5">
+        <v>29.6236</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.26819999999999999</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="5">
+        <v>35.93</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0.63739999999999997</v>
+      </c>
+      <c r="O8" s="5">
+        <v>12.561999999999999</v>
+      </c>
+      <c r="P8" s="6">
+        <v>1.9529999999999999E-2</v>
+      </c>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="6"/>
     </row>
     <row r="10" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="10"/>
+      <c r="K11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11" s="10"/>
+      <c r="M11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N11" s="10"/>
+      <c r="O11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N11" s="4"/>
-      <c r="O11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="R11" s="6"/>
+      <c r="R11" s="11"/>
     </row>
     <row r="12" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="O12" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q12" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="R12" s="9" t="s">
+      <c r="C12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="R12" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -990,151 +1061,244 @@
       <c r="B13" s="3">
         <v>3</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11">
+      <c r="C13" s="12">
+        <v>4176.3500000000004</v>
+      </c>
+      <c r="D13" s="12">
+        <v>15.8645</v>
+      </c>
+      <c r="E13" s="7">
         <v>12.4917</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="12">
         <v>0.57316800000000001</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="7">
         <v>1.4372799999999999</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="12">
         <v>0.102238</v>
       </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="12"/>
+      <c r="I13" s="7">
+        <v>20.98</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0.99370000000000003</v>
+      </c>
+      <c r="K13" s="7"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="7">
+        <v>15.2134</v>
+      </c>
+      <c r="N13" s="12">
+        <v>0.69740000000000002</v>
+      </c>
+      <c r="O13" s="7">
+        <v>1.35</v>
+      </c>
+      <c r="P13" s="8">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="Q13" s="13">
+        <v>1.3250299999999999</v>
+      </c>
+      <c r="R13" s="8">
+        <v>1.0357999999999999E-3</v>
+      </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>5</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11">
+      <c r="C14" s="12">
+        <v>7976.38</v>
+      </c>
+      <c r="D14" s="12">
+        <v>77.691500000000005</v>
+      </c>
+      <c r="E14" s="7">
         <v>88.083699999999993</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="12">
         <v>7.9672200000000006E-3</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="7">
         <v>14.371499999999999</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="12">
         <v>4.2432699999999997E-2</v>
       </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="12"/>
+      <c r="I14" s="7">
+        <v>99.134799999999998</v>
+      </c>
+      <c r="J14" s="12">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="7">
+        <v>65.344499999999996</v>
+      </c>
+      <c r="N14" s="12">
+        <v>5.8400000000000001E-2</v>
+      </c>
+      <c r="O14" s="7">
+        <v>14.425599999999999</v>
+      </c>
+      <c r="P14" s="8">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>3.43858</v>
+      </c>
+      <c r="R14" s="8">
+        <v>1.3810000000000001E-3</v>
+      </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <v>7</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11">
+      <c r="C15" s="12">
+        <v>13985.6</v>
+      </c>
+      <c r="D15" s="12">
+        <v>213.39699999999999</v>
+      </c>
+      <c r="E15" s="7">
         <v>328.55799999999999</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="12">
         <v>3.1598099999999998</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="7">
         <v>52.410499999999999</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="12">
         <v>0.15965399999999999</v>
       </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="12"/>
+      <c r="I15" s="7">
+        <v>239.69399999999999</v>
+      </c>
+      <c r="J15" s="12">
+        <v>0.1082</v>
+      </c>
+      <c r="K15" s="7"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="7">
+        <v>191.066</v>
+      </c>
+      <c r="N15" s="12">
+        <v>0</v>
+      </c>
+      <c r="O15" s="7">
+        <v>52.407800000000002</v>
+      </c>
+      <c r="P15" s="8">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>26.022099999999998</v>
+      </c>
+      <c r="R15" s="8">
+        <v>1.3731599999999999</v>
+      </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>9</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11">
+      <c r="C16" s="12">
+        <v>23050.2</v>
+      </c>
+      <c r="D16" s="12">
+        <v>624.65099999999995</v>
+      </c>
+      <c r="E16" s="7">
         <v>891.476</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="12">
         <v>3.5794600000000001</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="7">
         <v>149.32499999999999</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="12">
         <v>0.125</v>
       </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="12"/>
+      <c r="I16" s="7">
+        <v>442.10199999999998</v>
+      </c>
+      <c r="J16" s="12">
+        <v>9.30138</v>
+      </c>
+      <c r="K16" s="7"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="7">
+        <v>435.17700000000002</v>
+      </c>
+      <c r="N16" s="12">
+        <v>0.17677000000000001</v>
+      </c>
+      <c r="O16" s="13">
+        <v>149.31299999999999</v>
+      </c>
+      <c r="P16" s="8">
+        <v>0.108253</v>
+      </c>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="8"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>11</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="8">
+      <c r="C17" s="4">
+        <v>35403.800000000003</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1004.51</v>
+      </c>
+      <c r="E17" s="5">
         <v>1969.8</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="4">
         <v>4.9749400000000001</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="5">
         <v>328.08300000000003</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="4">
         <v>0.26516499999999998</v>
       </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="9"/>
+      <c r="I17" s="5">
+        <v>820.09400000000005</v>
+      </c>
+      <c r="J17" s="4">
+        <v>2.6809500000000002</v>
+      </c>
+      <c r="K17" s="5"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="5">
+        <v>1105.1099999999999</v>
+      </c>
+      <c r="N17" s="4">
+        <v>3.0413000000000001</v>
+      </c>
+      <c r="O17" s="14">
+        <v>328.07400000000001</v>
+      </c>
+      <c r="P17" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q11:R11"/>
     <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="G11:H11"/>
@@ -1142,7 +1306,6 @@
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>

--- a/Practicos/labfinal/medidas.xlsx
+++ b/Practicos/labfinal/medidas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://finguy-my.sharepoint.com/personal/federico_gil_fing_edu_uy/Documents/Escritorio/Facultad/Semestre 11/GPGPU/Practico 1/cositas/GPGPU/Practicos/labfinal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="176" documentId="8_{E4A5B43A-06FE-4F9F-B088-4855B00F055B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C686EDD-E68C-4B63-B22B-3802E17B99DD}"/>
+  <xr:revisionPtr revIDLastSave="196" documentId="8_{E4A5B43A-06FE-4F9F-B088-4855B00F055B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{814FE6FE-7EEB-44E2-873F-98CE2B71C80D}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5790" windowWidth="29040" windowHeight="15840" xr2:uid="{8BB1CD6E-8E1A-4958-B8CA-22BA6FE3242E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8BB1CD6E-8E1A-4958-B8CA-22BA6FE3242E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -269,22 +269,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -628,7 +628,7 @@
   <dimension ref="B1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,38 +643,38 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="9" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="9" t="s">
+      <c r="F2" s="14"/>
+      <c r="G2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="9" t="s">
+      <c r="H2" s="14"/>
+      <c r="I2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="9" t="s">
+      <c r="J2" s="14"/>
+      <c r="K2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="10"/>
-      <c r="M2" s="9" t="s">
+      <c r="L2" s="14"/>
+      <c r="M2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="10"/>
-      <c r="O2" s="9" t="s">
+      <c r="N2" s="14"/>
+      <c r="O2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="9" t="s">
+      <c r="P2" s="13"/>
+      <c r="Q2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="11"/>
+      <c r="R2" s="13"/>
     </row>
     <row r="3" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
@@ -733,36 +733,40 @@
       <c r="B4" s="3">
         <v>3</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="9">
         <v>141.84200000000001</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="9">
         <v>4.1886099999999997</v>
       </c>
       <c r="E4" s="7">
         <v>0.47404499999999999</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="9">
         <v>1.78156E-3</v>
       </c>
       <c r="G4" s="7">
         <v>5.6376299999999997E-2</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="9">
         <v>3.3707799999999999E-4</v>
       </c>
       <c r="I4" s="7">
         <v>0.71109999999999995</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="9">
         <v>2.751E-3</v>
       </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="12"/>
+      <c r="K4" s="7">
+        <v>1.69136</v>
+      </c>
+      <c r="L4" s="9">
+        <v>6.3288499999999996E-3</v>
+      </c>
       <c r="M4" s="7">
         <v>0.51770000000000005</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="9">
         <v>3.0360000000000002E-2</v>
       </c>
       <c r="O4" s="7">
@@ -771,7 +775,7 @@
       <c r="P4" s="8">
         <v>5.9389999999999996E-4</v>
       </c>
-      <c r="Q4" s="13">
+      <c r="Q4" s="10">
         <v>4.0627200000000002E-2</v>
       </c>
       <c r="R4" s="8">
@@ -782,36 +786,40 @@
       <c r="B5" s="3">
         <v>5</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="9">
         <v>258.00400000000002</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="9">
         <v>4.7387899999999998</v>
       </c>
       <c r="E5" s="7">
         <v>3.1827899999999998</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="9">
         <v>0.18701899999999999</v>
       </c>
       <c r="G5" s="7">
         <v>0.46752100000000002</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="9">
         <v>2.9901E-4</v>
       </c>
       <c r="I5" s="7">
         <v>3.8302399999999999</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="9">
         <v>8.2199999999999999E-3</v>
       </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="12"/>
+      <c r="K5" s="7">
+        <v>5.47668</v>
+      </c>
+      <c r="L5" s="9">
+        <v>1.76323E-2</v>
+      </c>
       <c r="M5" s="7">
         <v>2.45783</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="9">
         <v>0.11409999999999999</v>
       </c>
       <c r="O5" s="7">
@@ -820,7 +828,7 @@
       <c r="P5" s="8">
         <v>1.196E-3</v>
       </c>
-      <c r="Q5" s="13">
+      <c r="Q5" s="10">
         <v>9.8549999999999999E-2</v>
       </c>
       <c r="R5" s="8">
@@ -831,36 +839,40 @@
       <c r="B6" s="3">
         <v>7</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="9">
         <v>454.86399999999998</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="9">
         <v>20.109500000000001</v>
       </c>
       <c r="E6" s="7">
         <v>10.702400000000001</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="9">
         <v>0.173927</v>
       </c>
       <c r="G6" s="7">
         <v>1.6941999999999999</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="9">
         <v>2.8887100000000001E-3</v>
       </c>
       <c r="I6" s="7">
         <v>8.8889700000000005</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="9">
         <v>0.580955</v>
       </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="12"/>
+      <c r="K6" s="7">
+        <v>11.906000000000001</v>
+      </c>
+      <c r="L6" s="9">
+        <v>2.6200000000000001E-2</v>
+      </c>
       <c r="M6" s="7">
         <v>6.3801199999999998</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="9">
         <v>2.1215999999999999E-2</v>
       </c>
       <c r="O6" s="7">
@@ -869,7 +881,7 @@
       <c r="P6" s="8">
         <v>3.90625E-3</v>
       </c>
-      <c r="Q6" s="13">
+      <c r="Q6" s="10">
         <v>0.76276999999999995</v>
       </c>
       <c r="R6" s="8">
@@ -880,36 +892,40 @@
       <c r="B7" s="3">
         <v>9</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="9">
         <v>716.15200000000004</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="9">
         <v>5.6158200000000003</v>
       </c>
       <c r="E7" s="7">
         <v>28.9757</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="9">
         <v>0.23644899999999999</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="10">
         <v>4.8123800000000001</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="9">
         <v>0.120778</v>
       </c>
       <c r="I7" s="7">
         <v>14.6142</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="9">
         <v>7.9384399999999994E-2</v>
       </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="12"/>
+      <c r="K7" s="7">
+        <v>22.892099999999999</v>
+      </c>
+      <c r="L7" s="9">
+        <v>4.4194200000000003E-2</v>
+      </c>
       <c r="M7" s="7">
         <v>15.148099999999999</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="9">
         <v>6.3709000000000002E-2</v>
       </c>
       <c r="O7" s="7">
@@ -937,7 +953,7 @@
       <c r="F8" s="4">
         <v>0.25387599999999999</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="11">
         <v>10.783300000000001</v>
       </c>
       <c r="H8" s="4">
@@ -949,8 +965,12 @@
       <c r="J8" s="4">
         <v>0.26819999999999999</v>
       </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="4"/>
+      <c r="K8" s="5">
+        <v>42.250999999999998</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0.11640399999999999</v>
+      </c>
       <c r="M8" s="5">
         <v>35.93</v>
       </c>
@@ -971,38 +991,38 @@
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="14"/>
+      <c r="E11" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="9" t="s">
+      <c r="F11" s="14"/>
+      <c r="G11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="9" t="s">
+      <c r="H11" s="14"/>
+      <c r="I11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="10"/>
-      <c r="K11" s="9" t="s">
+      <c r="J11" s="14"/>
+      <c r="K11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="10"/>
-      <c r="M11" s="9" t="s">
+      <c r="L11" s="14"/>
+      <c r="M11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="N11" s="10"/>
-      <c r="O11" s="9" t="s">
+      <c r="N11" s="14"/>
+      <c r="O11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="9" t="s">
+      <c r="P11" s="13"/>
+      <c r="Q11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="R11" s="11"/>
+      <c r="R11" s="13"/>
     </row>
     <row r="12" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
@@ -1061,36 +1081,40 @@
       <c r="B13" s="3">
         <v>3</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="9">
         <v>4176.3500000000004</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="9">
         <v>15.8645</v>
       </c>
       <c r="E13" s="7">
         <v>12.4917</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="9">
         <v>0.57316800000000001</v>
       </c>
       <c r="G13" s="7">
         <v>1.4372799999999999</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="9">
         <v>0.102238</v>
       </c>
       <c r="I13" s="7">
         <v>20.98</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="9">
         <v>0.99370000000000003</v>
       </c>
-      <c r="K13" s="7"/>
-      <c r="L13" s="12"/>
+      <c r="K13" s="7">
+        <v>59.013100000000001</v>
+      </c>
+      <c r="L13" s="9">
+        <v>4.1909999999999998</v>
+      </c>
       <c r="M13" s="7">
         <v>15.2134</v>
       </c>
-      <c r="N13" s="12">
+      <c r="N13" s="9">
         <v>0.69740000000000002</v>
       </c>
       <c r="O13" s="7">
@@ -1099,7 +1123,7 @@
       <c r="P13" s="8">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="Q13" s="13">
+      <c r="Q13" s="10">
         <v>1.3250299999999999</v>
       </c>
       <c r="R13" s="8">
@@ -1110,36 +1134,40 @@
       <c r="B14" s="3">
         <v>5</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="9">
         <v>7976.38</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="9">
         <v>77.691500000000005</v>
       </c>
       <c r="E14" s="7">
         <v>88.083699999999993</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="9">
         <v>7.9672200000000006E-3</v>
       </c>
       <c r="G14" s="7">
         <v>14.371499999999999</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="9">
         <v>4.2432699999999997E-2</v>
       </c>
       <c r="I14" s="7">
         <v>99.134799999999998</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="9">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="12"/>
+      <c r="K14" s="7">
+        <v>176.07</v>
+      </c>
+      <c r="L14" s="9">
+        <v>7.6546600000000006E-2</v>
+      </c>
       <c r="M14" s="7">
         <v>65.344499999999996</v>
       </c>
-      <c r="N14" s="12">
+      <c r="N14" s="9">
         <v>5.8400000000000001E-2</v>
       </c>
       <c r="O14" s="7">
@@ -1148,7 +1176,7 @@
       <c r="P14" s="8">
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="Q14" s="13">
+      <c r="Q14" s="10">
         <v>3.43858</v>
       </c>
       <c r="R14" s="8">
@@ -1159,36 +1187,40 @@
       <c r="B15" s="3">
         <v>7</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="9">
         <v>13985.6</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="9">
         <v>213.39699999999999</v>
       </c>
       <c r="E15" s="7">
         <v>328.55799999999999</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="9">
         <v>3.1598099999999998</v>
       </c>
       <c r="G15" s="7">
         <v>52.410499999999999</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="9">
         <v>0.15965399999999999</v>
       </c>
       <c r="I15" s="7">
         <v>239.69399999999999</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="9">
         <v>0.1082</v>
       </c>
-      <c r="K15" s="7"/>
-      <c r="L15" s="12"/>
+      <c r="K15" s="7">
+        <v>379.33600000000001</v>
+      </c>
+      <c r="L15" s="9">
+        <v>12.481199999999999</v>
+      </c>
       <c r="M15" s="7">
         <v>191.066</v>
       </c>
-      <c r="N15" s="12">
+      <c r="N15" s="9">
         <v>0</v>
       </c>
       <c r="O15" s="7">
@@ -1197,7 +1229,7 @@
       <c r="P15" s="8">
         <v>1.5625E-2</v>
       </c>
-      <c r="Q15" s="13">
+      <c r="Q15" s="10">
         <v>26.022099999999998</v>
       </c>
       <c r="R15" s="8">
@@ -1208,39 +1240,43 @@
       <c r="B16" s="3">
         <v>9</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="9">
         <v>23050.2</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="9">
         <v>624.65099999999995</v>
       </c>
       <c r="E16" s="7">
         <v>891.476</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="9">
         <v>3.5794600000000001</v>
       </c>
       <c r="G16" s="7">
         <v>149.32499999999999</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="9">
         <v>0.125</v>
       </c>
       <c r="I16" s="7">
         <v>442.10199999999998</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="9">
         <v>9.30138</v>
       </c>
-      <c r="K16" s="7"/>
-      <c r="L16" s="12"/>
+      <c r="K16" s="7">
+        <v>738.34799999999996</v>
+      </c>
+      <c r="L16" s="9">
+        <v>5.2141599999999997</v>
+      </c>
       <c r="M16" s="7">
         <v>435.17700000000002</v>
       </c>
-      <c r="N16" s="12">
+      <c r="N16" s="9">
         <v>0.17677000000000001</v>
       </c>
-      <c r="O16" s="13">
+      <c r="O16" s="10">
         <v>149.31299999999999</v>
       </c>
       <c r="P16" s="8">
@@ -1277,15 +1313,19 @@
       <c r="J17" s="4">
         <v>2.6809500000000002</v>
       </c>
-      <c r="K17" s="5"/>
-      <c r="L17" s="4"/>
+      <c r="K17" s="5">
+        <v>1338.67</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0.35355300000000001</v>
+      </c>
       <c r="M17" s="5">
         <v>1105.1099999999999</v>
       </c>
       <c r="N17" s="4">
         <v>3.0413000000000001</v>
       </c>
-      <c r="O17" s="14">
+      <c r="O17" s="11">
         <v>328.07400000000001</v>
       </c>
       <c r="P17" s="6">

--- a/Practicos/labfinal/medidas.xlsx
+++ b/Practicos/labfinal/medidas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://finguy-my.sharepoint.com/personal/federico_gil_fing_edu_uy/Documents/Escritorio/Facultad/Semestre 11/GPGPU/Practico 1/cositas/GPGPU/Practicos/labfinal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="196" documentId="8_{E4A5B43A-06FE-4F9F-B088-4855B00F055B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{814FE6FE-7EEB-44E2-873F-98CE2B71C80D}"/>
+  <xr:revisionPtr revIDLastSave="257" documentId="8_{E4A5B43A-06FE-4F9F-B088-4855B00F055B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{194F2C90-EA00-4D3A-AF39-7F7D5C34AB3A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8BB1CD6E-8E1A-4958-B8CA-22BA6FE3242E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="15">
   <si>
     <t>1.pgm</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>Network</t>
+  </si>
+  <si>
+    <t>Countsort</t>
+  </si>
+  <si>
+    <t>Shell</t>
   </si>
 </sst>
 </file>
@@ -281,10 +287,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -625,58 +631,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{844EDFC7-8DC0-4A83-AF74-6C1538609742}">
-  <dimension ref="B1:R17"/>
+  <dimension ref="B1:V17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H23" sqref="F19:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="16" width="10.42578125" customWidth="1"/>
-    <col min="17" max="18" width="11.140625" customWidth="1"/>
+    <col min="3" max="20" width="10.42578125" customWidth="1"/>
+    <col min="21" max="22" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="14"/>
+      <c r="D2" s="13"/>
       <c r="E2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="14"/>
+      <c r="F2" s="13"/>
       <c r="G2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="14"/>
+      <c r="H2" s="13"/>
       <c r="I2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="14"/>
+      <c r="J2" s="13"/>
       <c r="K2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="14"/>
+      <c r="L2" s="13"/>
       <c r="M2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="14"/>
+      <c r="N2" s="13"/>
       <c r="O2" s="12" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="P2" s="13"/>
       <c r="Q2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="13"/>
+      <c r="S2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2" s="14"/>
+      <c r="U2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="13"/>
+      <c r="V2" s="14"/>
     </row>
-    <row r="3" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -719,17 +733,29 @@
       <c r="O3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="Q3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="R3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="V3" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>3</v>
       </c>
@@ -770,19 +796,31 @@
         <v>3.0360000000000002E-2</v>
       </c>
       <c r="O4" s="7">
+        <v>0.4768</v>
+      </c>
+      <c r="P4" s="9">
+        <v>2.0929999999999998E-3</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>13.911899999999999</v>
+      </c>
+      <c r="R4" s="9">
+        <v>1.38442</v>
+      </c>
+      <c r="S4" s="7">
         <v>5.6640000000000003E-2</v>
       </c>
-      <c r="P4" s="8">
+      <c r="T4" s="8">
         <v>5.9389999999999996E-4</v>
       </c>
-      <c r="Q4" s="10">
+      <c r="U4" s="10">
         <v>4.0627200000000002E-2</v>
       </c>
-      <c r="R4" s="8">
+      <c r="V4" s="8">
         <v>8.1400000000000005E-4</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>5</v>
       </c>
@@ -823,19 +861,31 @@
         <v>0.11409999999999999</v>
       </c>
       <c r="O5" s="7">
+        <v>2.5136799999999999</v>
+      </c>
+      <c r="P5" s="9">
+        <v>7.7200000000000003E-3</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>18.22</v>
+      </c>
+      <c r="R5" s="9">
+        <v>1.4342999999999999</v>
+      </c>
+      <c r="S5" s="7">
         <v>0.55159999999999998</v>
       </c>
-      <c r="P5" s="8">
+      <c r="T5" s="8">
         <v>1.196E-3</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="U5" s="10">
         <v>9.8549999999999999E-2</v>
       </c>
-      <c r="R5" s="8">
+      <c r="V5" s="8">
         <v>8.3900000000000001E-4</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>7</v>
       </c>
@@ -876,19 +926,31 @@
         <v>2.1215999999999999E-2</v>
       </c>
       <c r="O6" s="7">
+        <v>8.3865599999999993</v>
+      </c>
+      <c r="P6" s="9">
+        <v>1.512E-2</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>19.829999999999998</v>
+      </c>
+      <c r="R6" s="9">
+        <v>1.2410000000000001</v>
+      </c>
+      <c r="S6" s="7">
         <v>2.0009999999999999</v>
       </c>
-      <c r="P6" s="8">
+      <c r="T6" s="8">
         <v>3.90625E-3</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="U6" s="10">
         <v>0.76276999999999995</v>
       </c>
-      <c r="R6" s="8">
+      <c r="V6" s="8">
         <v>7.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>9</v>
       </c>
@@ -929,15 +991,27 @@
         <v>6.3709000000000002E-2</v>
       </c>
       <c r="O7" s="7">
+        <v>21.6494</v>
+      </c>
+      <c r="P7" s="9">
+        <v>0.82120000000000004</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>18.2622</v>
+      </c>
+      <c r="R7" s="9">
+        <v>1.2542</v>
+      </c>
+      <c r="S7" s="7">
         <v>5.6428099999999999</v>
       </c>
-      <c r="P7" s="8">
+      <c r="T7" s="8">
         <v>1.9530000000000001E-3</v>
       </c>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="8"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="8"/>
     </row>
-    <row r="8" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>11</v>
       </c>
@@ -978,53 +1052,73 @@
         <v>0.63739999999999997</v>
       </c>
       <c r="O8" s="5">
+        <v>30.492799999999999</v>
+      </c>
+      <c r="P8" s="4">
+        <v>0.9728</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>25.110199999999999</v>
+      </c>
+      <c r="R8" s="4">
+        <v>1.2696000000000001</v>
+      </c>
+      <c r="S8" s="5">
         <v>12.561999999999999</v>
       </c>
-      <c r="P8" s="6">
+      <c r="T8" s="6">
         <v>1.9529999999999999E-2</v>
       </c>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="6"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="6"/>
     </row>
-    <row r="10" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="14"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="14"/>
+      <c r="F11" s="13"/>
       <c r="G11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="14"/>
+      <c r="H11" s="13"/>
       <c r="I11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="14"/>
+      <c r="J11" s="13"/>
       <c r="K11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="14"/>
+      <c r="L11" s="13"/>
       <c r="M11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="N11" s="14"/>
+      <c r="N11" s="13"/>
       <c r="O11" s="12" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="P11" s="13"/>
       <c r="Q11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="R11" s="13"/>
+      <c r="S11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="T11" s="14"/>
+      <c r="U11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="R11" s="13"/>
+      <c r="V11" s="14"/>
     </row>
-    <row r="12" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>1</v>
       </c>
@@ -1067,17 +1161,29 @@
       <c r="O12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="P12" s="6" t="s">
+      <c r="P12" s="4" t="s">
         <v>3</v>
       </c>
       <c r="Q12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="R12" s="6" t="s">
+      <c r="R12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="V12" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <v>3</v>
       </c>
@@ -1118,19 +1224,31 @@
         <v>0.69740000000000002</v>
       </c>
       <c r="O13" s="7">
+        <v>15.3309</v>
+      </c>
+      <c r="P13" s="9">
+        <v>2.9700000000000001E-2</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>425.80399999999997</v>
+      </c>
+      <c r="R13" s="9">
+        <v>2.95275</v>
+      </c>
+      <c r="S13" s="7">
         <v>1.35</v>
       </c>
-      <c r="P13" s="8">
+      <c r="T13" s="8">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="Q13" s="10">
+      <c r="U13" s="10">
         <v>1.3250299999999999</v>
       </c>
-      <c r="R13" s="8">
+      <c r="V13" s="8">
         <v>1.0357999999999999E-3</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>5</v>
       </c>
@@ -1171,19 +1289,31 @@
         <v>5.8400000000000001E-2</v>
       </c>
       <c r="O14" s="7">
+        <v>67.694000000000003</v>
+      </c>
+      <c r="P14" s="9">
+        <v>1.94</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>623.42399999999998</v>
+      </c>
+      <c r="R14" s="9">
+        <v>2.4811000000000001</v>
+      </c>
+      <c r="S14" s="7">
         <v>14.425599999999999</v>
       </c>
-      <c r="P14" s="8">
+      <c r="T14" s="8">
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="Q14" s="10">
+      <c r="U14" s="10">
         <v>3.43858</v>
       </c>
-      <c r="R14" s="8">
+      <c r="V14" s="8">
         <v>1.3810000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <v>7</v>
       </c>
@@ -1224,19 +1354,31 @@
         <v>0</v>
       </c>
       <c r="O15" s="7">
+        <v>222.756</v>
+      </c>
+      <c r="P15" s="9">
+        <v>0.108253</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>681.93600000000004</v>
+      </c>
+      <c r="R15" s="9">
+        <v>1.0458000000000001</v>
+      </c>
+      <c r="S15" s="7">
         <v>52.407800000000002</v>
       </c>
-      <c r="P15" s="8">
+      <c r="T15" s="8">
         <v>1.5625E-2</v>
       </c>
-      <c r="Q15" s="10">
+      <c r="U15" s="10">
         <v>26.022099999999998</v>
       </c>
-      <c r="R15" s="8">
+      <c r="V15" s="8">
         <v>1.3731599999999999</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>9</v>
       </c>
@@ -1276,16 +1418,28 @@
       <c r="N16" s="9">
         <v>0.17677000000000001</v>
       </c>
-      <c r="O16" s="10">
+      <c r="O16" s="7">
+        <v>602.70899999999995</v>
+      </c>
+      <c r="P16" s="9">
+        <v>12.0649</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>605.97500000000002</v>
+      </c>
+      <c r="R16" s="9">
+        <v>7.5124899999999997</v>
+      </c>
+      <c r="S16" s="10">
         <v>149.31299999999999</v>
       </c>
-      <c r="P16" s="8">
+      <c r="T16" s="8">
         <v>0.108253</v>
       </c>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="8"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="8"/>
     </row>
-    <row r="17" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>11</v>
       </c>
@@ -1325,34 +1479,51 @@
       <c r="N17" s="4">
         <v>3.0413000000000001</v>
       </c>
-      <c r="O17" s="11">
+      <c r="O17" s="5">
+        <v>934.52499999999998</v>
+      </c>
+      <c r="P17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>823.43200000000002</v>
+      </c>
+      <c r="R17" s="4">
+        <v>8.45946</v>
+      </c>
+      <c r="S17" s="11">
         <v>328.07400000000001</v>
       </c>
-      <c r="P17" s="6">
+      <c r="T17" s="6">
         <v>0</v>
       </c>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="6"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
+  <mergeCells count="20">
     <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="S11:T11"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="S2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>